--- a/PANAMÁ/Indígenas/Indicadores sociodemo poblaciones y PI CELADE/Tasa Mortalidad Infantil indigena Panama.xlsx
+++ b/PANAMÁ/Indígenas/Indicadores sociodemo poblaciones y PI CELADE/Tasa Mortalidad Infantil indigena Panama.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\Desktop\SILVIA PLANILLA\P. Indigena El Salvador y Honduras\Panama\Sistema de indicadores sociodemograficos de poblaciones y pueblos indigenas - CELADE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Indígenas\Indicadores sociodemo poblaciones y PI CELADE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC7FC24A-C915-4770-971C-F4FC46A5A89B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2757DFC-7D0D-4C9E-8798-08985E2793A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Output" sheetId="1" r:id="rId1"/>
+    <sheet name="(Original) Tasa Mortalidad infa" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasa Mortalidad infa" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>CEPAL/CELADE Redatam+SP 10/12/2020</t>
   </si>
@@ -80,6 +81,21 @@
   </si>
   <si>
     <t>Procesado con Redatam Webserver - CEPAL/CELADE 2007-2019.</t>
+  </si>
+  <si>
+    <t>Condición</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>año censo</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ambas</t>
   </si>
 </sst>
 </file>
@@ -87,7 +103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="##\ ###\ ###\ ###\ ##0.00"/>
+    <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -183,43 +199,43 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -237,6 +253,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ACB1816D-A482-459A-8758-CDA523CB68E0}" name="Tabla1" displayName="Tabla1" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{95DF998A-D922-4FE7-B2A6-531FA35C535C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7545B15F-DCC0-4609-888D-DF5EEA2E0A57}" name="Condición"/>
+    <tableColumn id="2" xr3:uid="{045F7C70-ED41-4B32-A6AE-8878F98553B1}" name="Zona"/>
+    <tableColumn id="3" xr3:uid="{DF0F50C8-33CF-446C-B008-ED9F57CECD94}" name="año censo"/>
+    <tableColumn id="4" xr3:uid="{CDC51CBA-26E8-424E-8881-A863F0A4FE8E}" name="%"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,8 +594,8 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,308 +609,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="9" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <v>31.57</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="7">
         <v>18.489999999999998</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="9" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <v>57.39</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="7">
         <v>42.74</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="9" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="7">
         <v>53.4</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="7">
         <v>37.81</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="6"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -903,4 +932,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E1065E-AE2E-4D62-9654-1509123AAD02}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <v>31.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3">
+        <v>57.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>2010</v>
+      </c>
+      <c r="D5">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>2010</v>
+      </c>
+      <c r="D6">
+        <v>42.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>2010</v>
+      </c>
+      <c r="D7">
+        <v>37.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>